--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40614094-DFF3-4D6B-965E-8A9159A0BA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23716F0-5D41-4830-865E-A48B584EE740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8820" yWindow="4944" windowWidth="34752" windowHeight="18456" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>스트링 내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,6 +102,10 @@
   </si>
   <si>
     <t>흙의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_kor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +534,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -549,7 +549,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -557,7 +557,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
@@ -570,10 +570,10 @@
     </row>
     <row r="4" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -589,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -597,15 +597,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -613,7 +613,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -621,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -629,7 +629,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23716F0-5D41-4830-865E-A48B584EE740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA30D5B-426D-4DCE-8CA4-457CFEB883FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="4944" windowWidth="34752" windowHeight="18456" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="8820" yWindow="4950" windowWidth="34755" windowHeight="18450" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -20,45 +20,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>spell_name_2</t>
-  </si>
-  <si>
-    <t>spell_name_3</t>
-  </si>
-  <si>
-    <t>spell_name_4</t>
-  </si>
-  <si>
-    <t>spell_desc_2</t>
-  </si>
-  <si>
-    <t>spell_desc_3</t>
-  </si>
-  <si>
-    <t>spell_desc_4</t>
-  </si>
-  <si>
     <t>string_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,12 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spell_name_1</t>
-  </si>
-  <si>
-    <t>spell_desc_1</t>
-  </si>
-  <si>
     <t>불</t>
   </si>
   <si>
@@ -106,6 +71,168 @@
   </si>
   <si>
     <t>value_kor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_name_10101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_name_10102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_name_10103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_name_10104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_name_20101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_name_20102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_name_20103</t>
+  </si>
+  <si>
+    <t>spell_name_20104</t>
+  </si>
+  <si>
+    <t>spell_name_20105</t>
+  </si>
+  <si>
+    <t>spell_name_20106</t>
+  </si>
+  <si>
+    <t>spell_name_20107</t>
+  </si>
+  <si>
+    <t>spell_name_20108</t>
+  </si>
+  <si>
+    <t>spell_name_20109</t>
+  </si>
+  <si>
+    <t>spell_name_20110</t>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_desc_20101</t>
+  </si>
+  <si>
+    <t>spell_desc_20102</t>
+  </si>
+  <si>
+    <t>spell_desc_20103</t>
+  </si>
+  <si>
+    <t>spell_desc_20104</t>
+  </si>
+  <si>
+    <t>spell_desc_20105</t>
+  </si>
+  <si>
+    <t>spell_desc_20106</t>
+  </si>
+  <si>
+    <t>spell_desc_20107</t>
+  </si>
+  <si>
+    <t>spell_desc_20108</t>
+  </si>
+  <si>
+    <t>spell_desc_20109</t>
+  </si>
+  <si>
+    <t>spell_desc_20110</t>
+  </si>
+  <si>
+    <t>증기의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_desc_10101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_desc_10102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_desc_10103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_desc_10104</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,9 +361,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +401,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -380,7 +507,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,7 +649,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,37 +657,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.5" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="3"/>
+    <col min="3" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -568,102 +695,229 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA30D5B-426D-4DCE-8CA4-457CFEB883FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2736B06D-FB0B-4207-AA27-A0F756F5C4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8820" yWindow="4950" windowWidth="34755" windowHeight="18450" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="3456" yWindow="3912" windowWidth="34560" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>string</t>
   </si>
@@ -233,6 +233,24 @@
   </si>
   <si>
     <t>spell_desc_10104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_pc_temp</t>
+  </si>
+  <si>
+    <t>n_mon_temp</t>
+  </si>
+  <si>
+    <t>임시 PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#임시 스트링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,8 +299,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +319,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,6 +376,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -361,9 +400,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -401,7 +440,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -507,7 +546,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -649,7 +688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -657,21 +696,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.5" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.75" style="3"/>
+    <col min="3" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -679,7 +718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -687,7 +726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -695,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -703,7 +742,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -711,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -719,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -727,7 +766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -735,7 +774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -743,7 +782,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -751,7 +790,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -759,7 +798,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -767,7 +806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -775,7 +814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -783,7 +822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -791,7 +830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -799,7 +838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -807,7 +846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -815,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -823,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -831,7 +870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>57</v>
       </c>
@@ -839,7 +878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -847,7 +886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -855,7 +894,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -863,7 +902,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -871,7 +910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -879,7 +918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -887,7 +926,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -895,7 +934,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -903,7 +942,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -911,12 +950,34 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="9"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2736B06D-FB0B-4207-AA27-A0F756F5C4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E130EA-D8B5-4BEE-9EB3-3DE691A5DC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3456" yWindow="3912" windowWidth="34560" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="16956" yWindow="9276" windowWidth="23928" windowHeight="14064" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>string</t>
   </si>
@@ -252,6 +252,44 @@
   <si>
     <t>#임시 스트링</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_name_101</t>
+  </si>
+  <si>
+    <t>map_name_102</t>
+  </si>
+  <si>
+    <t>map_name_103</t>
+  </si>
+  <si>
+    <t>map_desc_101</t>
+  </si>
+  <si>
+    <t>map_desc_102</t>
+  </si>
+  <si>
+    <t>map_desc_103</t>
+  </si>
+  <si>
+    <t>임시 맵 101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 맵 102</t>
+  </si>
+  <si>
+    <t>임시 맵 103</t>
+  </si>
+  <si>
+    <t>임시 맵 설명 101. 이 편지는 영국으로부터 시작되어… 한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시 맵 설명 102. 이 편지는 영국으로부터 시작되어… 한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십</t>
+  </si>
+  <si>
+    <t>임시 맵 설명 103. 이 편지는 영국으로부터 시작되어… 한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십</t>
   </si>
 </sst>
 </file>
@@ -696,11 +734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -980,6 +1018,54 @@
         <v>61</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E130EA-D8B5-4BEE-9EB3-3DE691A5DC99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08737F9-A3AC-440E-B3A1-83DB8377417C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16956" yWindow="9276" windowWidth="23928" windowHeight="14064" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="16950" yWindow="9270" windowWidth="23925" windowHeight="14070" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="139">
   <si>
     <t>string</t>
   </si>
@@ -290,6 +290,230 @@
   </si>
   <si>
     <t>임시 맵 설명 103. 이 편지는 영국으로부터 시작되어… 한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십</t>
+  </si>
+  <si>
+    <t>spell_name_30101</t>
+  </si>
+  <si>
+    <t>spell_name_30201</t>
+  </si>
+  <si>
+    <t>spell_name_30202</t>
+  </si>
+  <si>
+    <t>spell_name_30301</t>
+  </si>
+  <si>
+    <t>spell_name_30302</t>
+  </si>
+  <si>
+    <t>spell_name_30401</t>
+  </si>
+  <si>
+    <t>spell_name_30402</t>
+  </si>
+  <si>
+    <t>spell_name_30501</t>
+  </si>
+  <si>
+    <t>spell_name_30601</t>
+  </si>
+  <si>
+    <t>spell_name_30602</t>
+  </si>
+  <si>
+    <t>spell_name_30701</t>
+  </si>
+  <si>
+    <t>spell_name_30702</t>
+  </si>
+  <si>
+    <t>spell_name_30801</t>
+  </si>
+  <si>
+    <t>spell_name_30901</t>
+  </si>
+  <si>
+    <t>spell_name_30902</t>
+  </si>
+  <si>
+    <t>spell_name_31001</t>
+  </si>
+  <si>
+    <t>붉은 플라즈마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 증기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 증기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀 열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 용암</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 용암</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 바다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 구름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀 구름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 풀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 풀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀 바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀 모래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 모래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 바위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_desc_30101</t>
+  </si>
+  <si>
+    <t>spell_desc_30201</t>
+  </si>
+  <si>
+    <t>spell_desc_30202</t>
+  </si>
+  <si>
+    <t>spell_desc_30301</t>
+  </si>
+  <si>
+    <t>spell_desc_30302</t>
+  </si>
+  <si>
+    <t>spell_desc_30401</t>
+  </si>
+  <si>
+    <t>spell_desc_30402</t>
+  </si>
+  <si>
+    <t>spell_desc_30501</t>
+  </si>
+  <si>
+    <t>spell_desc_30601</t>
+  </si>
+  <si>
+    <t>spell_desc_30602</t>
+  </si>
+  <si>
+    <t>spell_desc_30701</t>
+  </si>
+  <si>
+    <t>spell_desc_30702</t>
+  </si>
+  <si>
+    <t>spell_desc_30801</t>
+  </si>
+  <si>
+    <t>spell_desc_30901</t>
+  </si>
+  <si>
+    <t>spell_desc_30902</t>
+  </si>
+  <si>
+    <t>spell_desc_31001</t>
+  </si>
+  <si>
+    <t>붉은 플라즈마의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 증기의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 증기의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 열의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀 열의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 용암의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 용암의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 바다의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 구름의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀 구름의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 풀의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 풀의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀 바람의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀 모래의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 모래의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 바위의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -438,9 +662,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -478,7 +702,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -584,7 +808,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -726,7 +950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -734,21 +958,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.5" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.69921875" style="3"/>
+    <col min="3" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -756,7 +980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -764,7 +988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -772,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -780,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -788,7 +1012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -796,7 +1020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -804,7 +1028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -812,7 +1036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -820,7 +1044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -828,7 +1052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -836,7 +1060,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -844,7 +1068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -852,7 +1076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -860,7 +1084,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -868,7 +1092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -876,7 +1100,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -884,185 +1108,441 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="10" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="9"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="3" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="3" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="3" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>74</v>
       </c>
     </row>

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08737F9-A3AC-440E-B3A1-83DB8377417C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E698BD0-9A10-4EFE-8DC8-8050C31C0C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16950" yWindow="9270" windowWidth="23925" windowHeight="14070" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="11292" yWindow="3720" windowWidth="26520" windowHeight="18276" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
   <si>
     <t>string</t>
   </si>
@@ -54,22 +65,6 @@
     <t>흙</t>
   </si>
   <si>
-    <t>불의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공기의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흙의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value_kor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,38 +183,6 @@
     <t>spell_desc_20110</t>
   </si>
   <si>
-    <t>증기의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용암의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구름의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풀의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모래의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바위의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spell_desc_10101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -513,6 +476,49 @@
   </si>
   <si>
     <t>어두운 바위의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물의 기운입니다. 방어도 감소 (-8)</t>
+  </si>
+  <si>
+    <t>공기의 기운입니다. AP 2 감소 (AP증가/감소 재정립 필요)</t>
+  </si>
+  <si>
+    <t>흙의 기운입니다. 방어도 (+4)</t>
+  </si>
+  <si>
+    <t>none 대미지 타입 효과 (+9) + 지속 피해 (+2/3턴)</t>
+  </si>
+  <si>
+    <t>증기의 기운입니다. 방어력 감소 (-10) + 대미지 타입 효과 (+8)</t>
+  </si>
+  <si>
+    <t>열의 기운입니다. AP 3 감소 + 대미지 타입 효과 (+7)</t>
+  </si>
+  <si>
+    <t>용암의 기운입니다. 방어도 (+6) + 대미지 타입 효과 (+7)</t>
+  </si>
+  <si>
+    <t>none 디버프 해제 (+1)</t>
+  </si>
+  <si>
+    <t>구름의 기운입니다. AP 증가_지속 (미구현)</t>
+  </si>
+  <si>
+    <t>풀의 기운입니다. 체력 회복 효과_지속 (+3/3턴)</t>
+  </si>
+  <si>
+    <t>바람의 기운입니다. n턴 간 AP 가속</t>
+  </si>
+  <si>
+    <t>모래의 기운입니다. 행동 무효화 (3턴)</t>
+  </si>
+  <si>
+    <t>바위의 기운입니다. 방어도 (+12)</t>
+  </si>
+  <si>
+    <t>불의 기운입니다.\n대미지 타입 효과 (+5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,9 +668,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -702,7 +708,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -808,7 +814,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -950,7 +956,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -961,26 +967,26 @@
   <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.5" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.75" style="3"/>
+    <col min="3" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -988,7 +994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -996,554 +1002,554 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="6" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="B38" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="B39" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="B40" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="B41" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="B48" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="B49" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="B50" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="B51" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="B52" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="B53" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="B54" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="B55" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="B56" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="B57" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="B58" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B59" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B70" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="B71" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
+      <c r="B72" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E698BD0-9A10-4EFE-8DC8-8050C31C0C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8C6947-448D-4E0E-9D16-C657E3D84E5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11292" yWindow="3720" windowWidth="26520" windowHeight="18276" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="11295" yWindow="3720" windowWidth="26520" windowHeight="18270" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="159">
   <si>
     <t>string</t>
   </si>
@@ -217,15 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>map_name_101</t>
-  </si>
-  <si>
-    <t>map_name_102</t>
-  </si>
-  <si>
-    <t>map_name_103</t>
-  </si>
-  <si>
     <t>map_desc_101</t>
   </si>
   <si>
@@ -235,16 +226,6 @@
     <t>map_desc_103</t>
   </si>
   <si>
-    <t>임시 맵 101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>임시 맵 102</t>
-  </si>
-  <si>
-    <t>임시 맵 103</t>
-  </si>
-  <si>
     <t>임시 맵 설명 101. 이 편지는 영국으로부터 시작되어… 한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십한둘셋넷다여칠팔구십</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,6 +500,102 @@
   </si>
   <si>
     <t>불의 기운입니다.\n대미지 타입 효과 (+5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_name_1000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입학식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_name_1000201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아리 가두모집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_name_1010301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1학년 중간고사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_name_1000401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현장학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_name_1000501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_name_1020601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1학년 기말고사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_desc_1000101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신입생들이 모여 있고, 상당히 소란스럽습니다. 당신에게도 시비를 걸어오는 학생을 피할 수는 없을 것 같습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_desc_1000201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온갖 선배님들이 군침을 흘리며 신입생들을 노려보고 있습니다. 그들과 눈이 마주친다면.. 아시죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_desc_1010301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간고사는 대련 형식입니다. 중간고사에서 인정을 받아야 우습게 보이지 않을 것입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_desc_1000401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저마다 원하는 진로에 맞게 현장 체험 학습을 다녀옵니다. 쉽지는 않을 것 같네요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_desc_1000501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>역사와 유서가 깊은 운동회는 수단과 방법을 가리지 않는 배틀로얄 식 전투로 이루어집니다. 물론 그 안에서의 담합까지 말이죠.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_desc_1020601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마지막 전투인 기말고사는 교수님에게 인상적인 전투를 남겨야 합니다. 하지만 패배한 학생 중 통과했다는 말은 못 들어봤군요.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,9 +745,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -708,7 +785,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -814,7 +891,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -956,7 +1033,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -964,21 +1041,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.5" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.69921875" style="3"/>
+    <col min="3" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -986,7 +1063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -994,7 +1071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1010,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1018,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1026,7 +1103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1042,7 +1119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,7 +1127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1058,7 +1135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1066,7 +1143,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1074,7 +1151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1082,7 +1159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1090,7 +1167,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1098,7 +1175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1106,7 +1183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1114,381 +1191,381 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B54" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B55" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B59" s="6" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B60" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B61" s="6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B64" s="9"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>46</v>
       </c>
@@ -1496,7 +1573,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>47</v>
       </c>
@@ -1504,52 +1581,124 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" s="3" t="s">
+      <c r="B79" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" s="3" t="s">
+      <c r="B80" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A72" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8C6947-448D-4E0E-9D16-C657E3D84E5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A60F5E-1B05-4606-A8E7-BCF5061A1E74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11295" yWindow="3720" windowWidth="26520" windowHeight="18270" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -396,109 +385,6 @@
     <t>spell_desc_31001</t>
   </si>
   <si>
-    <t>붉은 플라즈마의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>붉은 증기의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른 증기의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>붉은 열의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀 열의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>붉은 용암의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어두운 용암의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른 바다의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른 구름의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀 구름의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른 풀의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어두운 풀의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀 바람의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀 모래의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어두운 모래의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어두운 바위의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물의 기운입니다. 방어도 감소 (-8)</t>
-  </si>
-  <si>
-    <t>공기의 기운입니다. AP 2 감소 (AP증가/감소 재정립 필요)</t>
-  </si>
-  <si>
-    <t>흙의 기운입니다. 방어도 (+4)</t>
-  </si>
-  <si>
-    <t>none 대미지 타입 효과 (+9) + 지속 피해 (+2/3턴)</t>
-  </si>
-  <si>
-    <t>증기의 기운입니다. 방어력 감소 (-10) + 대미지 타입 효과 (+8)</t>
-  </si>
-  <si>
-    <t>열의 기운입니다. AP 3 감소 + 대미지 타입 효과 (+7)</t>
-  </si>
-  <si>
-    <t>용암의 기운입니다. 방어도 (+6) + 대미지 타입 효과 (+7)</t>
-  </si>
-  <si>
-    <t>none 디버프 해제 (+1)</t>
-  </si>
-  <si>
-    <t>구름의 기운입니다. AP 증가_지속 (미구현)</t>
-  </si>
-  <si>
-    <t>풀의 기운입니다. 체력 회복 효과_지속 (+3/3턴)</t>
-  </si>
-  <si>
-    <t>바람의 기운입니다. n턴 간 AP 가속</t>
-  </si>
-  <si>
-    <t>모래의 기운입니다. 행동 무효화 (3턴)</t>
-  </si>
-  <si>
-    <t>바위의 기운입니다. 방어도 (+12)</t>
-  </si>
-  <si>
     <t>불의 기운입니다.\n대미지 타입 효과 (+5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -596,6 +482,121 @@
   </si>
   <si>
     <t>마지막 전투인 기말고사는 교수님에게 인상적인 전투를 남겨야 합니다. 하지만 패배한 학생 중 통과했다는 말은 못 들어봤군요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기의 기운입니다.\n자신 AP 1감소 or 적 AP 1증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물의 기운입니다.\n방어도 감소 (-7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙의 기운입니다.\n방어도 (+4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기의 기운입니다.\n방어력 감소 (-10) + 대미지 타입 효과 (+8)</t>
+  </si>
+  <si>
+    <t>플라즈마의 기운입니다.\n대미지 타입 효과 (+8) + 지속 피해 (+2/3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열의 기운입니다.\n(자신 AP 3감소 or 적 AP 3증가) + 대미지 타입 효과 (+7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암의 기운입니다.\n방어도 (+6) + 대미지 타입 효과 (+7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름의 기운입니다.\n방어도 감소 (-10) + (자신 AP 2감소 or 적 AP 2증가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 기운입니다.\n(자신 AP 1감소 or 적 AP 1증가) * 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래의 기운입니다.\n자신 AP 5감소 or 적 AP 5증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 증기의 기운입니다.\n방어력 감소 (-10) + 대미지 타입 효과 (+15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 증기의 기운입니다.\n방어력 감소 (-20) + 대미지 타입 효과 (+8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 열의 기운입니다.\n(자신 AP 3감소 or 적 AP 3증가) + 대미지 타입 효과 (+15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하얀 열의 기운입니다.\n(자신 AP 5감소 or 적 AP 5증가) + 대미지 타입 효과 (+7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 용암의 기운입니다.\n방어도 (+6) + 대미지 타입 효과 (+15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 용암의 기운입니다.\n방어도 (+12) + 대미지 타입 효과 (+7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 풀의 기운입니다.\n체력 회복 효과_지속 (+2/3턴) + 체력 회복 (+5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 풀의 기운입니다.\n체력 회복 효과_지속 (+4/3턴) + 방어도 (+6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(제작 금지) 푸른 구름의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(제작 금지) 하얀 구름의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(제작 금지) 푸른 바다의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(제작 금지) 하얀 바람의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(제작 금지) 하얀 모래의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(제작 금지) 어두운 모래의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(제작 금지) 바다의 기운입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀의 기운입니다.\n체력 회복 효과_지속 (+3/3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위의 기운입니다.\n방어도 (+10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 플라즈마의 기운입니다.\n대미지 타입 효과 (+25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어두운 바위의 기운입니다.\n방어도 (+20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,8 +1045,8 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1324,7 +1325,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1332,7 +1333,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1340,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1348,7 +1349,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1356,7 +1357,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1364,7 +1365,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1372,7 +1373,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1380,7 +1381,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1388,7 +1389,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1396,7 +1397,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1404,7 +1405,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1412,7 +1413,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1420,7 +1421,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1428,7 +1429,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1436,7 +1437,7 @@
         <v>89</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1444,7 +1445,7 @@
         <v>90</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1452,23 +1453,23 @@
         <v>91</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1476,7 +1477,7 @@
         <v>94</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1484,7 +1485,7 @@
         <v>95</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1492,7 +1493,7 @@
         <v>96</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1500,7 +1501,7 @@
         <v>97</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1508,7 +1509,7 @@
         <v>98</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1516,7 +1517,7 @@
         <v>99</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1524,7 +1525,7 @@
         <v>100</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1532,7 +1533,7 @@
         <v>101</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1540,7 +1541,7 @@
         <v>102</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1548,7 +1549,7 @@
         <v>103</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1556,7 +1557,7 @@
         <v>104</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1583,98 +1584,98 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A60F5E-1B05-4606-A8E7-BCF5061A1E74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD184B65-EBC1-435B-8CD9-443FF09E59AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11295" yWindow="3720" windowWidth="26520" windowHeight="18270" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -504,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>열의 기운입니다.\n(자신 AP 3감소 or 적 AP 3증가) + 대미지 타입 효과 (+7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>용암의 기운입니다.\n방어도 (+6) + 대미지 타입 효과 (+7)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,14 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바람의 기운입니다.\n(자신 AP 1감소 or 적 AP 1증가) * 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모래의 기운입니다.\n자신 AP 5감소 or 적 AP 5증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>붉은 증기의 기운입니다.\n방어력 감소 (-10) + 대미지 타입 효과 (+15)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,6 +585,18 @@
   </si>
   <si>
     <t>어두운 바위의 기운입니다.\n방어도 (+20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열의 기운입니다.\n(자신 AP 2감소 or 적 AP 2증가) + 대미지 타입 효과 (+7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 기운입니다.\n(자신 AP 1감소 or 적 AP 1증가) * 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래의 기운입니다.\n자신 AP 3감소 or 적 AP 3증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,8 +1045,8 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1373,7 +1373,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1381,7 +1381,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1389,7 +1389,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1405,7 +1405,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1413,7 +1413,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1421,7 +1421,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1429,7 +1429,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1437,7 +1437,7 @@
         <v>89</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1445,7 +1445,7 @@
         <v>90</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1453,7 +1453,7 @@
         <v>91</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="24" x14ac:dyDescent="0.2">
@@ -1461,7 +1461,7 @@
         <v>92</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="24" x14ac:dyDescent="0.2">
@@ -1469,7 +1469,7 @@
         <v>93</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1477,7 +1477,7 @@
         <v>94</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1485,7 +1485,7 @@
         <v>95</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1493,7 +1493,7 @@
         <v>96</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1501,7 +1501,7 @@
         <v>97</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1509,7 +1509,7 @@
         <v>98</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1517,7 +1517,7 @@
         <v>99</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1525,7 +1525,7 @@
         <v>100</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1533,7 +1533,7 @@
         <v>101</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1541,7 +1541,7 @@
         <v>102</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1549,7 +1549,7 @@
         <v>103</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1557,7 +1557,7 @@
         <v>104</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD184B65-EBC1-435B-8CD9-443FF09E59AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2268187C-6E5E-4D50-B367-0F7D72175A5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11295" yWindow="3720" windowWidth="26520" windowHeight="18270" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
   <si>
     <t>string</t>
   </si>
@@ -106,10 +106,6 @@
     <t>spell_name_20110</t>
   </si>
   <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>증기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -592,11 +588,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바람의 기운입니다.\n(자신 AP 1감소 or 적 AP 1증가) * 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모래의 기운입니다.\n자신 AP 3감소 or 적 AP 3증가</t>
+    <t>플라즈마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래의 기운입니다.\n(자신 AP 1감소 or 적 AP 1증가) * 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 기운입니다.\n자신 AP 3감소 or 적 AP 3증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1045,8 +1049,8 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1117,7 +1121,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1125,7 +1129,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1133,7 +1137,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1141,7 +1145,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1149,7 +1153,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1157,7 +1161,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1165,7 +1169,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1173,7 +1177,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1181,7 +1185,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1189,236 +1193,236 @@
         <v>22</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>158</v>
@@ -1426,280 +1430,280 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B64" s="9"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2268187C-6E5E-4D50-B367-0F7D72175A5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29627B39-7335-4DA5-A873-7C86E3A7D13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11295" yWindow="3720" windowWidth="26520" windowHeight="18270" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="11244" yWindow="4596" windowWidth="26520" windowHeight="18276" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
   <si>
     <t>string</t>
   </si>
@@ -601,6 +601,249 @@
   </si>
   <si>
     <t>바람의 기운입니다.\n자신 AP 3감소 or 적 AP 3증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#abnormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절</t>
+  </si>
+  <si>
+    <t>피해 무효화</t>
+  </si>
+  <si>
+    <t>회피율 증가</t>
+  </si>
+  <si>
+    <t>회피율 감소</t>
+  </si>
+  <si>
+    <t>계수 증가</t>
+  </si>
+  <si>
+    <t>계수 감소</t>
+  </si>
+  <si>
+    <t>디버프 적중률 증가</t>
+  </si>
+  <si>
+    <t>디버프 적중률 감소</t>
+  </si>
+  <si>
+    <t>디버프 저항률 증가</t>
+  </si>
+  <si>
+    <t>디버프 저항률 감소</t>
+  </si>
+  <si>
+    <t>피해 확산</t>
+  </si>
+  <si>
+    <t xml:space="preserve">도발 </t>
+  </si>
+  <si>
+    <t>반격</t>
+  </si>
+  <si>
+    <t>abnormal_name_dot_skill_damage</t>
+  </si>
+  <si>
+    <t>abnormal_name_dot_heal</t>
+  </si>
+  <si>
+    <t>abnormal_name_stun</t>
+  </si>
+  <si>
+    <t>abnormal_name_reflect_damage</t>
+  </si>
+  <si>
+    <t>abnormal_name_reflect_damage_per</t>
+  </si>
+  <si>
+    <t>abnormal_name_damage_invincible</t>
+  </si>
+  <si>
+    <t>abnormal_name_avoid_up</t>
+  </si>
+  <si>
+    <t>abnormal_name_avoid_down</t>
+  </si>
+  <si>
+    <t>abnormal_name_all_up_per</t>
+  </si>
+  <si>
+    <t>abnormal_name_all_down_per</t>
+  </si>
+  <si>
+    <t>abnormal_name_dot_draw</t>
+  </si>
+  <si>
+    <t>abnormal_name_debuff_accuracy_up</t>
+  </si>
+  <si>
+    <t>abnormal_name_debuff_accuracy_down</t>
+  </si>
+  <si>
+    <t>abnormal_name_debuff_resistance_up</t>
+  </si>
+  <si>
+    <t>abnormal_name_debuff_resistance_down</t>
+  </si>
+  <si>
+    <t>abnormal_name_damage_spread</t>
+  </si>
+  <si>
+    <t>abnormal_name_provoke</t>
+  </si>
+  <si>
+    <t>abnormal_name_counter</t>
+  </si>
+  <si>
+    <t>지속 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속 회복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반사(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abnormal_desc_dot_skill_damage</t>
+  </si>
+  <si>
+    <t>abnormal_desc_dot_heal</t>
+  </si>
+  <si>
+    <t>abnormal_desc_stun</t>
+  </si>
+  <si>
+    <t>abnormal_desc_reflect_damage</t>
+  </si>
+  <si>
+    <t>abnormal_desc_reflect_damage_per</t>
+  </si>
+  <si>
+    <t>abnormal_desc_damage_invincible</t>
+  </si>
+  <si>
+    <t>abnormal_desc_avoid_up</t>
+  </si>
+  <si>
+    <t>abnormal_desc_avoid_down</t>
+  </si>
+  <si>
+    <t>abnormal_desc_all_up_per</t>
+  </si>
+  <si>
+    <t>abnormal_desc_all_down_per</t>
+  </si>
+  <si>
+    <t>abnormal_desc_dot_draw</t>
+  </si>
+  <si>
+    <t>abnormal_desc_debuff_accuracy_up</t>
+  </si>
+  <si>
+    <t>abnormal_desc_debuff_accuracy_down</t>
+  </si>
+  <si>
+    <t>abnormal_desc_debuff_resistance_up</t>
+  </si>
+  <si>
+    <t>abnormal_desc_debuff_resistance_down</t>
+  </si>
+  <si>
+    <t>abnormal_desc_damage_spread</t>
+  </si>
+  <si>
+    <t>abnormal_desc_provoke</t>
+  </si>
+  <si>
+    <t>abnormal_desc_counter</t>
+  </si>
+  <si>
+    <t>지속적으로 피해를 입습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속적으로 체력을 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행동불가에 빠집니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지의 일부를 상대에게 되돌려줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지의 일부(비율)를 상대에게 되돌려줍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해를 지속 시간동안 무효화합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피율이 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지가 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지가 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드로우??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 적중률이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 적중률이 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 저항률이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프 저항률이 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용하는 공격의 피해가 확산됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적을 도발합니다. 해당 상태의 적 이외에는 선택할 수 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격을 받으면 반격을 합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,9 +993,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -790,7 +1033,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -896,7 +1139,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1038,7 +1281,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1046,21 +1289,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.5" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.75" style="3"/>
+    <col min="3" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1068,7 +1311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1076,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1084,7 +1327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1092,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1100,7 +1343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,7 +1351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1116,7 +1359,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1124,7 +1367,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1132,7 +1375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1140,7 +1383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1148,7 +1391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1156,7 +1399,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1164,7 +1407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1172,7 +1415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,7 +1423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1188,7 +1431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1196,7 +1439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1204,7 +1447,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -1212,7 +1455,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1220,7 +1463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -1228,7 +1471,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1236,7 +1479,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -1244,7 +1487,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -1252,7 +1495,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>63</v>
       </c>
@@ -1260,7 +1503,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>64</v>
       </c>
@@ -1268,7 +1511,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>65</v>
       </c>
@@ -1276,7 +1519,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -1284,7 +1527,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
@@ -1292,7 +1535,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
@@ -1300,7 +1543,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
@@ -1308,7 +1551,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>70</v>
       </c>
@@ -1316,7 +1559,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -1324,7 +1567,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -1332,7 +1575,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
@@ -1340,7 +1583,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
@@ -1348,7 +1591,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -1356,7 +1599,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -1364,7 +1607,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1372,7 +1615,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1380,7 +1623,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1388,7 +1631,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1396,7 +1639,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1404,7 +1647,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1412,7 +1655,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1420,7 +1663,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1428,7 +1671,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1436,7 +1679,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>88</v>
       </c>
@@ -1444,7 +1687,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
@@ -1452,7 +1695,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>90</v>
       </c>
@@ -1460,7 +1703,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>91</v>
       </c>
@@ -1468,7 +1711,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>92</v>
       </c>
@@ -1476,7 +1719,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>93</v>
       </c>
@@ -1484,7 +1727,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>94</v>
       </c>
@@ -1492,7 +1735,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>95</v>
       </c>
@@ -1500,7 +1743,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>96</v>
       </c>
@@ -1508,7 +1751,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>97</v>
       </c>
@@ -1516,7 +1759,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>98</v>
       </c>
@@ -1524,7 +1767,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>99</v>
       </c>
@@ -1532,7 +1775,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>100</v>
       </c>
@@ -1540,7 +1783,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>101</v>
       </c>
@@ -1548,7 +1791,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>102</v>
       </c>
@@ -1556,7 +1799,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>103</v>
       </c>
@@ -1564,145 +1807,439 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="B101" s="9"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>55</v>
       </c>
     </row>

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29627B39-7335-4DA5-A873-7C86E3A7D13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFFB965-C68C-40AB-B1A5-FCAA95EA022A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11244" yWindow="4596" windowWidth="26520" windowHeight="18276" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="17724" yWindow="5568" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="240">
   <si>
     <t>string</t>
   </si>
@@ -844,6 +844,31 @@
   </si>
   <si>
     <t>공격을 받으면 반격을 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_name_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_name_02</t>
+  </si>
+  <si>
+    <t>app_desc_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_desc_02</t>
+  </si>
+  <si>
+    <t>어플리케이션 임시 01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어플리케이션 임시 02</t>
+  </si>
+  <si>
+    <t>어플리케이션 설명은 이러쿵 저러쿵 쿵따리 샤바라 빱빠빠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1289,11 +1314,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -2243,6 +2268,38 @@
         <v>55</v>
       </c>
     </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A119" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A120" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A121" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A122" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFFB965-C68C-40AB-B1A5-FCAA95EA022A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2541EC17-1C2D-4855-9A2F-6D7006A20F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17724" yWindow="5568" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="245">
   <si>
     <t>string</t>
   </si>
@@ -869,6 +869,26 @@
   </si>
   <si>
     <t>어플리케이션 설명은 이러쿵 저러쿵 쿵따리 샤바라 빱빠빠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_name_coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_desc_coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험 토큰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시험 기간동안 임시로 사용할 수 있는 재화. 일부 이벤트에서 시험에 도움이 될 상품과 교환할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1314,11 +1334,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+      <pane ySplit="3" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -2300,6 +2320,28 @@
         <v>239</v>
       </c>
     </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A123" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B123" s="9"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A124" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A125" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2541EC17-1C2D-4855-9A2F-6D7006A20F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74AE513-CB2B-4969-BB33-3FCC863F8891}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17724" yWindow="5568" windowWidth="25740" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="17730" yWindow="5565" windowWidth="25740" windowHeight="13575" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -110,22 +110,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>용암</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>구름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>바람</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,10 +369,6 @@
     <t>spell_desc_31001</t>
   </si>
   <si>
-    <t>불의 기운입니다.\n대미지 타입 효과 (+5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>map_name_1000101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,129 +465,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공기의 기운입니다.\n자신 AP 1감소 or 적 AP 1증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물의 기운입니다.\n방어도 감소 (-7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흙의 기운입니다.\n방어도 (+4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증기의 기운입니다.\n방어력 감소 (-10) + 대미지 타입 효과 (+8)</t>
-  </si>
-  <si>
-    <t>플라즈마의 기운입니다.\n대미지 타입 효과 (+8) + 지속 피해 (+2/3턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용암의 기운입니다.\n방어도 (+6) + 대미지 타입 효과 (+7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구름의 기운입니다.\n방어도 감소 (-10) + (자신 AP 2감소 or 적 AP 2증가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>붉은 증기의 기운입니다.\n방어력 감소 (-10) + 대미지 타입 효과 (+15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른 증기의 기운입니다.\n방어력 감소 (-20) + 대미지 타입 효과 (+8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>붉은 열의 기운입니다.\n(자신 AP 3감소 or 적 AP 3증가) + 대미지 타입 효과 (+15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀 열의 기운입니다.\n(자신 AP 5감소 or 적 AP 5증가) + 대미지 타입 효과 (+7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>붉은 용암의 기운입니다.\n방어도 (+6) + 대미지 타입 효과 (+15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어두운 용암의 기운입니다.\n방어도 (+12) + 대미지 타입 효과 (+7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른 풀의 기운입니다.\n체력 회복 효과_지속 (+2/3턴) + 체력 회복 (+5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어두운 풀의 기운입니다.\n체력 회복 효과_지속 (+4/3턴) + 방어도 (+6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(제작 금지) 푸른 구름의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(제작 금지) 하얀 구름의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(제작 금지) 푸른 바다의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(제작 금지) 하얀 바람의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(제작 금지) 하얀 모래의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(제작 금지) 어두운 모래의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(제작 금지) 바다의 기운입니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>풀의 기운입니다.\n체력 회복 효과_지속 (+3/3턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바위의 기운입니다.\n방어도 (+10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>붉은 플라즈마의 기운입니다.\n대미지 타입 효과 (+25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어두운 바위의 기운입니다.\n방어도 (+20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열의 기운입니다.\n(자신 AP 2감소 or 적 AP 2증가) + 대미지 타입 효과 (+7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플라즈마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모래의 기운입니다.\n(자신 AP 1감소 or 적 AP 1증가) * 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바람의 기운입니다.\n자신 AP 3감소 or 적 AP 3증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#abnormal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -889,6 +750,146 @@
   </si>
   <si>
     <t>시험 기간동안 임시로 사용할 수 있는 재화. 일부 이벤트에서 시험에 도움이 될 상품과 교환할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진흙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불의 기운입니다.\n적 단일 피해 (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물의 기운입니다.\n자신 체력 회복 (6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기의 기운입니다.\n적 단일 2회 피해 (5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열풍의 기운입니다.\n적 전체 피해 (20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음의 기운입니다.\n적 단일 피해 (15) + 자신 체력 회복 (9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 기운입니다.\n적 단일 3회 피해 (8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙의 기운입니다.\n자신 방어도 (8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마그마의 기운입니다.\n적 단일 피해 (20) + 자신 방어도 (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진흙의 기운입니다.\n자신 회피 (1) + 피해량의 일부 자신 회복 (50%, 최대 15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래의 기운입니다.\n적 단일 피해 (10) + 자신 회피 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위의 기운입니다.\n자신 방어도 (20) + 자신 디버프 해제 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대폭발의 기운입니다.\n적 단일 피해 (50) + 자신 피해량 증가 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기 폭발의 기운입니다.\n적 단일 피해 (30) + 대상 주는 피해량 감소 (25%, 3AP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발의 기운입니다.\n적 단일 피해 (15) + 대상 지속 피해 (5, 3AP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기의 기운입니다.\n적 단일 피해 + 대상 피해량 감소 (25%, 3AP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수의 기운입니다.\n자신 체력 회복 (7) + 자신 지속 회복 (3, 3AP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름의 기운입니다.\n적 단일 피해 (20) + 대상 주는 피해량 감소 (50%, 5AP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태양풍의 기운입니다.\n적 단일 피해 (30) + 다음 행동 시까지 받는 피해량 증가 (25%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불꽃 회오리의 기운입니다.\n적 전체 피해 (30) + 대상 지속 피해 (5, 3AP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암의 기운입니다.\n적 단일 지속 피해 (10, 5AP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄소의 기운입니다.\n적 단일 지속 피해 (5, 5AP) + 자신 지속 방어도 (5, 5AP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다의 기운입니다.\n자신 체력 회복 (20) + 현재 체력이 30% 미만이라면, 추가 회복 (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅의 기운입니다.\n자신 방어도 (25) + 자신 방어도 깨지지 않은 상태로 3AP 지날 시, 추가 방어도 (15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수렁의 기운입니다.\n자신 방어도 (20) + 자신 방어도 깨지지 않은 상태로 피격 시, 대상 AP 증가 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리의 기운입니다.\n적 단일 피해 (20) + 자신 피해량에 비례하여 회복 (100%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙하의 기운입니다.\n자신 체력 회복 (15) + 전체 회복량이 최대 체력을 초과한다면, 초과된 회복량만큼 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍의 기운입니다.\n적 전체 4회 피해 (10) + 적 처치마다 전체 추가 피해 (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래바람의 기운입니다.\n적 전체 지속 피해 (10, 3AP) + 자신 지속 회피 (1, 2AP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래지옥의 기운입니다.\n적 단일 피해 (30) + 대상 AP 증가 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진의 기운입니다.\n자신 방어도 0으로 만든 후, 줄어든 방어도 수치만큼 적 단일 피해 + 자신 방어도 (10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1038,9 +1039,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1078,7 +1079,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1184,7 +1185,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1326,7 +1327,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1337,18 +1338,18 @@
   <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B126" sqref="B126"/>
+      <pane ySplit="3" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.5" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.69921875" style="3"/>
+    <col min="3" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1404,15 +1405,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1420,926 +1421,926 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="B40" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="6" t="s">
+      <c r="B48" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="B49" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="B50" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="9"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B101" s="9"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="9"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="B119" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="B120" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="B121" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="B122" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="B123" s="9"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="B124" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="B125" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A101" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B101" s="9"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A102" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A103" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A104" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A105" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A106" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A107" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A108" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A109" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A110" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A111" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A112" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A113" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A114" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A115" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A116" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A117" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A118" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A119" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A120" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A121" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A122" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A123" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="B123" s="9"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A124" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A125" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74AE513-CB2B-4969-BB33-3FCC863F8891}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B8AA8C-A2A2-45EC-BB06-1246A5BA6947}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17730" yWindow="5565" windowWidth="25740" windowHeight="13575" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -257,70 +257,6 @@
     <t>spell_name_31001</t>
   </si>
   <si>
-    <t>붉은 플라즈마</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>붉은 증기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른 증기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>붉은 열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀 열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>붉은 용암</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어두운 용암</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른 바다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른 구름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀 구름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른 풀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어두운 풀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀 바람</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하얀 모래</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어두운 모래</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어두운 바위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spell_desc_30101</t>
   </si>
   <si>
@@ -845,10 +781,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>불꽃 회오리의 기운입니다.\n적 전체 피해 (30) + 대상 지속 피해 (5, 3AP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>용암의 기운입니다.\n적 단일 지속 피해 (10, 5AP)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -890,6 +822,74 @@
   </si>
   <si>
     <t>지진의 기운입니다.\n자신 방어도 0으로 만든 후, 줄어든 방어도 수치만큼 적 단일 피해 + 자신 방어도 (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마그마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대폭발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기 폭발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태양풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불꽃회오리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불꽃회오리의 기운입니다.\n적 전체 피해 (30) + 대상 지속 피해 (5, 3AP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수렁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래지옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1338,8 +1338,8 @@
   <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1410,7 +1410,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1426,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1434,7 +1434,7 @@
         <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>24</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1450,7 +1450,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1458,7 +1458,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1490,7 +1490,7 @@
         <v>53</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>69</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1498,7 +1498,7 @@
         <v>54</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1506,7 +1506,7 @@
         <v>55</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>71</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1514,7 +1514,7 @@
         <v>56</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>72</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1522,7 +1522,7 @@
         <v>57</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>73</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1530,7 +1530,7 @@
         <v>58</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1538,7 +1538,7 @@
         <v>59</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>75</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1546,7 +1546,7 @@
         <v>60</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>76</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1554,7 +1554,7 @@
         <v>61</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>77</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1562,7 +1562,7 @@
         <v>62</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1570,7 +1570,7 @@
         <v>63</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1578,7 +1578,7 @@
         <v>64</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>80</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1586,7 +1586,7 @@
         <v>65</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>81</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1594,7 +1594,7 @@
         <v>66</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>82</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1602,7 +1602,7 @@
         <v>67</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>83</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1610,7 +1610,7 @@
         <v>68</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>84</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1618,7 +1618,7 @@
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1626,7 +1626,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1634,7 +1634,7 @@
         <v>40</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1642,7 +1642,7 @@
         <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1650,7 +1650,7 @@
         <v>28</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1658,7 +1658,7 @@
         <v>29</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1666,7 +1666,7 @@
         <v>30</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1674,7 +1674,7 @@
         <v>31</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1682,7 +1682,7 @@
         <v>32</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1690,7 +1690,7 @@
         <v>33</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1698,7 +1698,7 @@
         <v>34</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1706,7 +1706,7 @@
         <v>35</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1714,7 +1714,7 @@
         <v>36</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1722,429 +1722,429 @@
         <v>37</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B64" s="9"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -2171,98 +2171,98 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -2291,56 +2291,56 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B123" s="9"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B8AA8C-A2A2-45EC-BB06-1246A5BA6947}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AC4155-1403-4A2C-850E-6C2608B9F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17730" yWindow="5565" windowWidth="25740" windowHeight="13575" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="5292" yWindow="6048" windowWidth="24792" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="258">
   <si>
     <t>string</t>
   </si>
@@ -890,6 +890,52 @@
   </si>
   <si>
     <t>지진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#NPC 상점 - 테스트용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_npc_temp</t>
+  </si>
+  <si>
+    <t>상점(임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_name_101</t>
+  </si>
+  <si>
+    <t>상점입니다.(임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialog_shop_title_1000101</t>
+  </si>
+  <si>
+    <t>dialog_shop_text_1000102</t>
+  </si>
+  <si>
+    <t>dialog_shop_button_1000103</t>
+  </si>
+  <si>
+    <t>dialog_shop_button_1000104</t>
+  </si>
+  <si>
+    <t>상점 이벤트(임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 이벤트입니다.(임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품보기(임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가기(임시)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1039,9 +1085,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1079,7 +1125,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1185,7 +1231,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1327,7 +1373,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1335,21 +1381,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <pane ySplit="3" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.5" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.75" style="3"/>
+    <col min="3" max="16384" width="8.69921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1357,7 +1403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1365,7 +1411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1381,7 +1427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1389,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1397,7 +1443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1405,7 +1451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1413,7 +1459,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1421,7 +1467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1429,7 +1475,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1437,7 +1483,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1445,7 +1491,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1453,7 +1499,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1461,7 +1507,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1469,7 +1515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1477,7 +1523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1485,7 +1531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -1493,7 +1539,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -1501,7 +1547,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
@@ -1509,7 +1555,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -1517,7 +1563,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1525,7 +1571,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -1533,7 +1579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
@@ -1541,7 +1587,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
@@ -1549,7 +1595,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
@@ -1557,7 +1603,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
@@ -1565,7 +1611,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -1573,7 +1619,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -1581,7 +1627,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -1589,7 +1635,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
@@ -1597,7 +1643,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
@@ -1605,7 +1651,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
@@ -1613,7 +1659,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1621,7 +1667,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
@@ -1629,7 +1675,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
@@ -1637,7 +1683,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -1645,7 +1691,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
@@ -1653,7 +1699,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
@@ -1661,7 +1707,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
@@ -1669,7 +1715,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -1677,7 +1723,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
@@ -1685,7 +1731,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -1693,7 +1739,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -1701,7 +1747,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
@@ -1709,7 +1755,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>36</v>
       </c>
@@ -1717,7 +1763,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
@@ -1725,7 +1771,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>69</v>
       </c>
@@ -1733,7 +1779,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>70</v>
       </c>
@@ -1741,7 +1787,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
@@ -1749,7 +1795,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>72</v>
       </c>
@@ -1757,7 +1803,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>73</v>
       </c>
@@ -1765,7 +1811,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>74</v>
       </c>
@@ -1773,7 +1819,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>75</v>
       </c>
@@ -1781,7 +1827,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>76</v>
       </c>
@@ -1789,7 +1835,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>77</v>
       </c>
@@ -1797,7 +1843,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>78</v>
       </c>
@@ -1805,7 +1851,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>79</v>
       </c>
@@ -1813,7 +1859,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>80</v>
       </c>
@@ -1821,7 +1867,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
@@ -1829,7 +1875,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
@@ -1837,7 +1883,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>83</v>
       </c>
@@ -1845,7 +1891,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>84</v>
       </c>
@@ -1853,13 +1899,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="10" t="s">
         <v>109</v>
       </c>
       <c r="B64" s="9"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
@@ -1867,7 +1913,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>124</v>
       </c>
@@ -1875,7 +1921,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>125</v>
       </c>
@@ -1883,7 +1929,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>126</v>
       </c>
@@ -1891,7 +1937,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>127</v>
       </c>
@@ -1899,7 +1945,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>128</v>
       </c>
@@ -1907,7 +1953,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>129</v>
       </c>
@@ -1915,7 +1961,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>130</v>
       </c>
@@ -1923,7 +1969,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>131</v>
       </c>
@@ -1931,7 +1977,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>132</v>
       </c>
@@ -1939,7 +1985,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
@@ -1947,7 +1993,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>134</v>
       </c>
@@ -1955,7 +2001,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>135</v>
       </c>
@@ -1963,7 +2009,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>136</v>
       </c>
@@ -1971,7 +2017,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>137</v>
       </c>
@@ -1979,7 +2025,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>138</v>
       </c>
@@ -1987,7 +2033,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>139</v>
       </c>
@@ -1995,7 +2041,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>140</v>
       </c>
@@ -2003,7 +2049,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>146</v>
       </c>
@@ -2011,7 +2057,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>147</v>
       </c>
@@ -2019,7 +2065,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>148</v>
       </c>
@@ -2027,7 +2073,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>149</v>
       </c>
@@ -2035,7 +2081,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>150</v>
       </c>
@@ -2043,7 +2089,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>151</v>
       </c>
@@ -2051,7 +2097,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>152</v>
       </c>
@@ -2059,7 +2105,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>153</v>
       </c>
@@ -2067,7 +2113,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>154</v>
       </c>
@@ -2075,7 +2121,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>155</v>
       </c>
@@ -2083,7 +2129,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>156</v>
       </c>
@@ -2091,7 +2137,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>157</v>
       </c>
@@ -2099,7 +2145,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>158</v>
       </c>
@@ -2107,7 +2153,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>159</v>
       </c>
@@ -2115,7 +2161,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>160</v>
       </c>
@@ -2123,7 +2169,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
@@ -2131,7 +2177,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>162</v>
       </c>
@@ -2139,7 +2185,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
@@ -2147,13 +2193,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B101" s="9"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="3" t="s">
         <v>42</v>
       </c>
@@ -2161,7 +2207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="3" t="s">
         <v>43</v>
       </c>
@@ -2169,7 +2215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="3" t="s">
         <v>85</v>
       </c>
@@ -2177,7 +2223,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="3" t="s">
         <v>87</v>
       </c>
@@ -2185,7 +2231,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
         <v>89</v>
       </c>
@@ -2193,7 +2239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
         <v>91</v>
       </c>
@@ -2201,7 +2247,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="3" t="s">
         <v>93</v>
       </c>
@@ -2209,7 +2255,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="3" t="s">
         <v>95</v>
       </c>
@@ -2217,7 +2263,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="3" t="s">
         <v>97</v>
       </c>
@@ -2225,7 +2271,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="3" t="s">
         <v>99</v>
       </c>
@@ -2233,7 +2279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="3" t="s">
         <v>101</v>
       </c>
@@ -2241,7 +2287,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="3" t="s">
         <v>103</v>
       </c>
@@ -2249,7 +2295,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="3" t="s">
         <v>105</v>
       </c>
@@ -2257,7 +2303,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -2265,7 +2311,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="3" t="s">
         <v>47</v>
       </c>
@@ -2273,7 +2319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="3" t="s">
         <v>48</v>
       </c>
@@ -2281,7 +2327,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="3" t="s">
         <v>49</v>
       </c>
@@ -2289,7 +2335,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="3" t="s">
         <v>182</v>
       </c>
@@ -2297,7 +2343,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="3" t="s">
         <v>183</v>
       </c>
@@ -2305,7 +2351,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="3" t="s">
         <v>184</v>
       </c>
@@ -2313,7 +2359,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="3" t="s">
         <v>185</v>
       </c>
@@ -2321,13 +2367,13 @@
         <v>188</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="10" t="s">
         <v>189</v>
       </c>
       <c r="B123" s="9"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="3" t="s">
         <v>190</v>
       </c>
@@ -2335,12 +2381,74 @@
         <v>192</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>193</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A126" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" s="9"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A127" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A128" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A133" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AC4155-1403-4A2C-850E-6C2608B9F2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7916253-B3ED-4210-BAEA-1784A88A2171}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5292" yWindow="6048" windowWidth="24792" windowHeight="13572" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="5295" yWindow="6045" windowWidth="24795" windowHeight="13575" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="string" sheetId="1" r:id="rId1"/>
@@ -709,122 +709,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>불의 기운입니다.\n적 단일 피해 (10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물의 기운입니다.\n자신 체력 회복 (6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공기의 기운입니다.\n적 단일 2회 피해 (5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열풍의 기운입니다.\n적 전체 피해 (20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>얼음의 기운입니다.\n적 단일 피해 (15) + 자신 체력 회복 (9)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바람의 기운입니다.\n적 단일 3회 피해 (8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>흙의 기운입니다.\n자신 방어도 (8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마그마의 기운입니다.\n적 단일 피해 (20) + 자신 방어도 (10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>진흙의 기운입니다.\n자신 회피 (1) + 피해량의 일부 자신 회복 (50%, 최대 15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모래의 기운입니다.\n적 단일 피해 (10) + 자신 회피 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바위의 기운입니다.\n자신 방어도 (20) + 자신 디버프 해제 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대폭발의 기운입니다.\n적 단일 피해 (50) + 자신 피해량 증가 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증기 폭발의 기운입니다.\n적 단일 피해 (30) + 대상 주는 피해량 감소 (25%, 3AP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발의 기운입니다.\n적 단일 피해 (15) + 대상 지속 피해 (5, 3AP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>증기의 기운입니다.\n적 단일 피해 + 대상 피해량 감소 (25%, 3AP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍수의 기운입니다.\n자신 체력 회복 (7) + 자신 지속 회복 (3, 3AP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구름의 기운입니다.\n적 단일 피해 (20) + 대상 주는 피해량 감소 (50%, 5AP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태양풍의 기운입니다.\n적 단일 피해 (30) + 다음 행동 시까지 받는 피해량 증가 (25%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>용암의 기운입니다.\n적 단일 지속 피해 (10, 5AP)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탄소의 기운입니다.\n적 단일 지속 피해 (5, 5AP) + 자신 지속 방어도 (5, 5AP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바다의 기운입니다.\n자신 체력 회복 (20) + 현재 체력이 30% 미만이라면, 추가 회복 (10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>땅의 기운입니다.\n자신 방어도 (25) + 자신 방어도 깨지지 않은 상태로 3AP 지날 시, 추가 방어도 (15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수렁의 기운입니다.\n자신 방어도 (20) + 자신 방어도 깨지지 않은 상태로 피격 시, 대상 AP 증가 (1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서리의 기운입니다.\n적 단일 피해 (20) + 자신 피해량에 비례하여 회복 (100%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빙하의 기운입니다.\n자신 체력 회복 (15) + 전체 회복량이 최대 체력을 초과한다면, 초과된 회복량만큼 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>태풍의 기운입니다.\n적 전체 4회 피해 (10) + 적 처치마다 전체 추가 피해 (10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모래바람의 기운입니다.\n적 전체 지속 피해 (10, 3AP) + 자신 지속 회피 (1, 2AP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모래지옥의 기운입니다.\n적 단일 피해 (30) + 대상 AP 증가 (2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지진의 기운입니다.\n자신 방어도 0으로 만든 후, 줄어든 방어도 수치만큼 적 단일 피해 + 자신 방어도 (10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마그마</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -849,10 +741,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>불꽃회오리의 기운입니다.\n적 전체 피해 (30) + 대상 지속 피해 (5, 3AP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>탄소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -936,6 +824,118 @@
   </si>
   <si>
     <t>나가기(임시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불의 기운입니다.\n적 단일 피해 (5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기의 기운입니다.\n적 단일 2회 피해 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발의 기운입니다.\n적 단일 피해 (10) + 대상 지속 피해 (2, 3AP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열풍의 기운입니다.\n적 전체 피해 (12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물의 기운입니다.\n자신 체력 회복 (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙의 기운입니다.\n자신 방어도 (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마그마의 기운입니다.\n적 단일 피해 (7) + 자신 방어도 (6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍수의 기운입니다.\n자신 체력 회복 (6) + 자신 지속 회복 (1, 3AP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진흙의 기운입니다.\n자신 받은 피해량의 일부 회복 (30%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 기운입니다.\n적 단일 3회 피해 (4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대폭발의 기운입니다.\n적 단일 피해 (20) + 자신 피해량 증가 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위의 기운입니다.\n자신 방어도 (10) + 자신 디버프 해제 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기의 기운입니다.\n적 단일 피해 (5) + 대상 주는 피해량 감소 (10%, 3AP_현재 무한)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증기 폭발의 기운입니다.\n적 단일 피해 (15) + 대상 주는 피해량 감소 (20%, 3AP_현재 무한)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구름의 기운입니다.\n적 단일 피해 (5) + 대상 주는 피해량 감소 (30%, 5AP_현재 무한)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태양풍의 기운입니다.\n적 단일 피해 (20) + 다음 행동 시까지 받는 피해량 증가 (20%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불꽃회오리의 기운입니다.\n적 전체 피해 (15) + 대상 지속 피해 (5, 3AP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄소의 기운입니다.\n적 단일 지속 피해 (5, 3AP) + 자신 지속 방어도 (5, 3AP)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지진의 기운입니다.\n자신 방어도 0으로 만든 후, 줄어든 방어도 수치만큼 적 단일 피해(미구현) + 자신 방어도 (10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래의 기운입니다.\n적 단일 피해 (10) + 자신 받는 피해량 감소 (10%, 3AP_현재 무한)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래지옥의 기운입니다.\n적 단일 피해 (15) + 대상 AP 증가 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래바람의 기운입니다.\n적 전체 지속 피해 (7, 3AP) + 자신 받는 피해량 감소 (20%, 3AP_현재 무한)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>태풍의 기운입니다.\n적 전체 4회 피해 (10) + 적 처치마다 전체 추가 피해 (10)  (미구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅의 기운입니다.\n자신 방어도 (25) + 자신 방어도 깨지지 않은 상태로 3AP 지날 시, 추가 방어도 (15) (미구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수렁의 기운입니다.\n자신 방어도 (20) + 자신 방어도 깨지지 않은 상태로 피격 시, 대상 AP 증가 (1) (미구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서리의 기운입니다.\n적 단일 피해 (20) + 자신 피해량에 비례하여 회복 (30%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다의 기운입니다.\n자신 체력 회복 (20) + 현재 체력이 30% 미만이라면, 추가 회복 (10) (미구현)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙하의 기운입니다.\n자신 체력 회복 (15) + 전체 회복량이 최대 체력을 초과한다면, 초과된 회복량만큼 피해 (30%)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,9 +1085,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1125,7 +1125,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1231,7 +1231,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1373,7 +1373,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1384,18 +1384,18 @@
   <dimension ref="A1:B133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
+      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" style="3" customWidth="1"/>
     <col min="2" max="2" width="55.5" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="8.69921875" style="3"/>
+    <col min="3" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1475,15 +1475,15 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1531,47 +1531,47 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
@@ -1579,333 +1579,333 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="26.4" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="24" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>109</v>
       </c>
       <c r="B64" s="9"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>123</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>124</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>125</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>126</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>127</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>128</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>129</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>130</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>131</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>132</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>133</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>134</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>135</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>136</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>137</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>138</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>139</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>140</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>146</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>147</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>148</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>149</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>150</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>151</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>152</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>153</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>154</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>155</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>156</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>157</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>158</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>159</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>160</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>161</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>162</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
@@ -2193,13 +2193,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B101" s="9"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>42</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>43</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>85</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>87</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>89</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>91</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>93</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>95</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>97</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>99</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>101</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>103</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>105</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>107</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>47</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>48</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>49</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>182</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>183</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>184</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>185</v>
       </c>
@@ -2367,13 +2367,13 @@
         <v>188</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>189</v>
       </c>
       <c r="B123" s="9"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>190</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>191</v>
       </c>
@@ -2389,66 +2389,66 @@
         <v>193</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="B126" s="9"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7916253-B3ED-4210-BAEA-1784A88A2171}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60B2087-1E34-4FB2-B058-8513499AC46A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5295" yWindow="6045" windowWidth="24795" windowHeight="13575" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="282">
   <si>
     <t>string</t>
   </si>
@@ -936,6 +936,90 @@
   </si>
   <si>
     <t>빙하의 기운입니다.\n자신 체력 회복 (15) + 전체 회복량이 최대 체력을 초과한다면, 초과된 회복량만큼 피해 (30%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abnormal_name_give_damage_up_buff</t>
+  </si>
+  <si>
+    <t>abnormal_name_give_damage_down_buff</t>
+  </si>
+  <si>
+    <t>abnormal_name_take_damage_up_buff</t>
+  </si>
+  <si>
+    <t>abnormal_name_take_damage_down_buff</t>
+  </si>
+  <si>
+    <t>abnormal_name_give_damage_up_fixed</t>
+  </si>
+  <si>
+    <t>abnormal_desc_give_damage_up_buff</t>
+  </si>
+  <si>
+    <t>abnormal_desc_give_damage_down_buff</t>
+  </si>
+  <si>
+    <t>abnormal_desc_take_damage_up_buff</t>
+  </si>
+  <si>
+    <t>abnormal_desc_take_damage_down_buff</t>
+  </si>
+  <si>
+    <t>abnormal_desc_give_damage_up_fixed</t>
+  </si>
+  <si>
+    <t>방어도_지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 고정 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abnormal_name_dot_armor</t>
+  </si>
+  <si>
+    <t>abnormal_desc_dot_armor</t>
+  </si>
+  <si>
+    <t>지속적으로 방어도를 획득합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주는 피해량이 일정 비율 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주는 피해량이 일정 비율 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 받는 피해량이 일정 비율 감소합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 받는 피해량이 일정 비율 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 주는 피해량이 고정적으로 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1381,11 +1465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:B145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2049,405 +2133,501 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>169</v>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B106" s="6" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B101" s="9"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>92</v>
+        <v>276</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>93</v>
+        <v>263</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>94</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>96</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>97</v>
+        <v>265</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>98</v>
+        <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>100</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>101</v>
+        <v>267</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>102</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="A113" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" s="9"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>188</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="B123" s="9"/>
+      <c r="A123" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>190</v>
+        <v>101</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>192</v>
+        <v>102</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>193</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B126" s="9"/>
+      <c r="A126" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>219</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>221</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>222</v>
+        <v>49</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>226</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B135" s="9"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B138" s="9"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B145" s="3" t="s">
         <v>229</v>
       </c>
     </row>

--- a/GameData/Excel/string.xlsx
+++ b/GameData/Excel/string.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60B2087-1E34-4FB2-B058-8513499AC46A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFE4987-40A6-4C4D-89A2-200DCFA8C28F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5295" yWindow="6045" windowWidth="24795" windowHeight="13575" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="315">
   <si>
     <t>string</t>
   </si>
@@ -1020,6 +1020,135 @@
   </si>
   <si>
     <t>적에게 주는 피해량이 고정적으로 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#서포트모듈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_name_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_name_1002</t>
+  </si>
+  <si>
+    <t>sup_mod_name_1003</t>
+  </si>
+  <si>
+    <t>sup_mod_name_1004</t>
+  </si>
+  <si>
+    <t>sup_mod_desc_1001_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_desc_1002_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_desc_1003_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_desc_1004_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_name_1005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_name_1006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_desc_1005_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_desc_1006_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불꽃 고클린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번지는 불꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 창조 : 업화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 창조 : 아마테라스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨버터 (불)의 AP 생산주기가 1 줄어듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨버터 (불)의 원소 생산량이 1 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨버터 (불) 주문 중 스펠 '폭발'이 '업화'로 변경됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨버터 (불) 주문 중 스펠 '대폭발'이 '아마테라스'로 변경됩니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진공청소기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_name_1007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_name_1008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기청정기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흙 재생기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2 생성기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_desc_1007_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sup_mod_desc_1008_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨버터 (흙)의 AP 생산주기가 1 줄어듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨버터 (흙)의 원소 생산량이 1 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨버터 (바람)의 AP 생산주기가 1 줄어듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨버터 (바람)의 원소 생산량이 1 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1465,11 +1594,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B112" sqref="B112"/>
+      <pane ySplit="3" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M152" sqref="M152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2354,7 +2483,7 @@
         <v>265</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -2362,7 +2491,7 @@
         <v>266</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -2629,6 +2758,140 @@
       </c>
       <c r="B145" s="3" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="B146" s="9"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
